--- a/labs/extinction/extinction-lab.xlsx
+++ b/labs/extinction/extinction-lab.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Year</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>Q2</t>
-  </si>
-  <si>
     <t>Question 1</t>
   </si>
   <si>
@@ -178,6 +175,12 @@
   </si>
   <si>
     <t>Question 2 - 10 simulations</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Time to extinction</t>
   </si>
 </sst>
 </file>
@@ -557,14 +560,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O66"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -573,7 +577,7 @@
         <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -692,7 +696,7 @@
         <v>47</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1161,59 +1165,60 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>0</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>2</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>3</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>4</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>5</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>6</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
         <v>7</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I37" t="s">
         <v>8</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J37" t="s">
         <v>9</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K37" t="s">
         <v>10</v>
       </c>
-      <c r="L36" t="s">
+      <c r="L37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1228,7 +1233,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1243,7 +1248,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1258,7 +1263,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1273,7 +1278,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1288,7 +1293,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1303,7 +1308,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1318,7 +1323,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1333,7 +1338,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1348,7 +1353,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1363,7 +1368,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1378,7 +1383,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1393,7 +1398,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1408,7 +1413,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1423,7 +1428,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1438,7 +1443,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1453,7 +1458,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1468,7 +1473,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1483,7 +1488,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1498,7 +1503,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1513,7 +1518,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1528,7 +1533,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1543,7 +1548,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1558,7 +1563,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1573,7 +1578,7 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1588,7 +1593,7 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1603,7 +1608,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1618,7 +1623,7 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1633,7 +1638,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1645,6 +1650,21 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>30</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1659,7 +1679,7 @@
   <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1796,7 +1816,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2711,7 +2731,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2726,7 +2746,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2736,7 +2756,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="J1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -3005,7 +3025,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3022,7 +3042,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3039,7 +3059,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>

--- a/labs/extinction/extinction-lab.xlsx
+++ b/labs/extinction/extinction-lab.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4569F8B-C37C-4ABC-BF96-F1DF5E03769C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise I" sheetId="1" r:id="rId1"/>
@@ -186,7 +187,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,6 +350,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -384,6 +402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,20 +594,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>46</v>
       </c>
@@ -595,7 +630,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -677,7 +712,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -699,7 +734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -717,7 +752,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -733,7 +768,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -749,7 +784,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -765,7 +800,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -781,7 +816,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -797,7 +832,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -813,7 +848,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -829,7 +864,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -845,7 +880,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -861,7 +896,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -877,7 +912,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -893,7 +928,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -909,7 +944,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -925,7 +960,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -941,7 +976,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -957,7 +992,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -973,7 +1008,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -989,7 +1024,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1005,7 +1040,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1021,7 +1056,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1037,7 +1072,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1053,7 +1088,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1069,7 +1104,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1085,7 +1120,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1101,7 +1136,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1117,7 +1152,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1133,7 +1168,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1149,7 +1184,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1165,7 +1200,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1181,7 +1216,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1231,7 +1266,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1246,7 +1281,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1261,7 +1296,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1276,7 +1311,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1291,7 +1326,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1306,7 +1341,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1321,7 +1356,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1336,7 +1371,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1351,7 +1386,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1366,7 +1401,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -1381,7 +1416,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -1396,7 +1431,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13</v>
       </c>
@@ -1411,7 +1446,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14</v>
       </c>
@@ -1426,7 +1461,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15</v>
       </c>
@@ -1441,7 +1476,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>16</v>
       </c>
@@ -1456,7 +1491,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>17</v>
       </c>
@@ -1471,7 +1506,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>18</v>
       </c>
@@ -1486,7 +1521,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>19</v>
       </c>
@@ -1501,7 +1536,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>20</v>
       </c>
@@ -1516,7 +1551,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>21</v>
       </c>
@@ -1531,7 +1566,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>22</v>
       </c>
@@ -1546,7 +1581,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>23</v>
       </c>
@@ -1561,7 +1596,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>24</v>
       </c>
@@ -1576,7 +1611,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>25</v>
       </c>
@@ -1591,7 +1626,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>26</v>
       </c>
@@ -1606,7 +1641,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>27</v>
       </c>
@@ -1621,7 +1656,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>28</v>
       </c>
@@ -1636,7 +1671,7 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>29</v>
       </c>
@@ -1651,7 +1686,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>30</v>
       </c>
@@ -1675,21 +1710,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1771,7 +1806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1786,7 +1821,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1801,7 +1836,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1819,7 +1854,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1838,7 +1873,7 @@
       </c>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1857,7 +1892,7 @@
       </c>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1876,7 +1911,7 @@
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1891,7 +1926,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1906,7 +1941,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1921,7 +1956,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1936,7 +1971,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1951,7 +1986,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1966,7 +2001,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1981,7 +2016,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1996,7 +2031,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2011,7 +2046,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2026,7 +2061,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2041,7 +2076,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2056,7 +2091,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2071,7 +2106,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2086,7 +2121,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2101,7 +2136,7 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2116,7 +2151,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2131,7 +2166,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2146,7 +2181,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2161,7 +2196,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2176,7 +2211,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2191,7 +2226,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2206,7 +2241,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2221,7 +2256,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2236,7 +2271,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2271,7 +2306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -2286,7 +2321,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2301,7 +2336,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2316,7 +2351,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2331,7 +2366,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -2346,7 +2381,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>6</v>
       </c>
@@ -2361,7 +2396,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>7</v>
       </c>
@@ -2376,7 +2411,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>8</v>
       </c>
@@ -2391,7 +2426,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9</v>
       </c>
@@ -2406,7 +2441,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10</v>
       </c>
@@ -2421,7 +2456,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11</v>
       </c>
@@ -2436,7 +2471,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12</v>
       </c>
@@ -2451,7 +2486,7 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>13</v>
       </c>
@@ -2466,7 +2501,7 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>14</v>
       </c>
@@ -2481,7 +2516,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>15</v>
       </c>
@@ -2496,7 +2531,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>16</v>
       </c>
@@ -2511,7 +2546,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>17</v>
       </c>
@@ -2526,7 +2561,7 @@
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>18</v>
       </c>
@@ -2541,7 +2576,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>19</v>
       </c>
@@ -2556,7 +2591,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>20</v>
       </c>
@@ -2571,7 +2606,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>21</v>
       </c>
@@ -2586,7 +2621,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>22</v>
       </c>
@@ -2601,7 +2636,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>23</v>
       </c>
@@ -2616,7 +2651,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>24</v>
       </c>
@@ -2631,7 +2666,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>25</v>
       </c>
@@ -2646,7 +2681,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>26</v>
       </c>
@@ -2661,7 +2696,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>27</v>
       </c>
@@ -2676,7 +2711,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>28</v>
       </c>
@@ -2691,7 +2726,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>29</v>
       </c>
@@ -2706,7 +2741,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>30</v>
       </c>
@@ -2727,24 +2762,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" customWidth="1"/>
-    <col min="10" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" customWidth="1"/>
+    <col min="10" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>48</v>
       </c>
@@ -2763,7 +2798,7 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>24</v>
       </c>
@@ -2783,7 +2818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>0</v>
       </c>
@@ -2803,7 +2838,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>1</v>
       </c>
@@ -2813,7 +2848,7 @@
       </c>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>2</v>
       </c>
@@ -2823,7 +2858,7 @@
       </c>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>3</v>
       </c>
@@ -2833,7 +2868,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>4</v>
       </c>
@@ -2843,7 +2878,7 @@
       </c>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>5</v>
       </c>
@@ -2853,7 +2888,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2876,7 +2911,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2891,7 +2926,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2906,7 +2941,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2921,7 +2956,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2936,7 +2971,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2951,7 +2986,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>24</v>
       </c>
@@ -2968,7 +3003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>0</v>
       </c>
@@ -2979,7 +3014,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>1</v>
       </c>
@@ -2990,7 +3025,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>2</v>
       </c>
@@ -3001,7 +3036,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>3</v>
       </c>
@@ -3012,7 +3047,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>4</v>
       </c>
@@ -3023,7 +3058,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -3040,7 +3075,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -3057,7 +3092,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>51</v>
       </c>

--- a/labs/extinction/extinction-lab.xlsx
+++ b/labs/extinction/extinction-lab.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20354"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4569F8B-C37C-4ABC-BF96-F1DF5E03769C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222AF82F-E441-413B-9C1B-9E2A8CAA85AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise I" sheetId="1" r:id="rId1"/>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2765,7 +2765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
